--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>158.0580139160156</v>
+        <v>132.9303436279297</v>
       </c>
       <c r="H2" t="n">
-        <v>74.13175201416016</v>
+        <v>93.85756683349609</v>
       </c>
       <c r="I2" t="n">
-        <v>474.5171813964844</v>
+        <v>468.9796752929688</v>
       </c>
       <c r="J2" t="n">
-        <v>86.18691253662109</v>
+        <v>88.33750915527344</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7236633300781</v>
+        <v>138.2059173583984</v>
       </c>
       <c r="H3" t="n">
-        <v>72.21592712402344</v>
+        <v>102.988525390625</v>
       </c>
       <c r="I3" t="n">
-        <v>501.0951538085938</v>
+        <v>485.4430236816406</v>
       </c>
       <c r="J3" t="n">
-        <v>93.66378021240234</v>
+        <v>98.60566711425781</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>177.6169891357422</v>
+        <v>154.5339508056641</v>
       </c>
       <c r="H4" t="n">
-        <v>66.79730224609375</v>
+        <v>89.90825653076172</v>
       </c>
       <c r="I4" t="n">
-        <v>501.7106628417969</v>
+        <v>491.3038635253906</v>
       </c>
       <c r="J4" t="n">
-        <v>96.57997894287109</v>
+        <v>103.6719741821289</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>193.8529510498047</v>
+        <v>186.81201171875</v>
       </c>
       <c r="H5" t="n">
-        <v>65.36344909667969</v>
+        <v>87.50068664550781</v>
       </c>
       <c r="I5" t="n">
-        <v>507.39599609375</v>
+        <v>491.5860290527344</v>
       </c>
       <c r="J5" t="n">
-        <v>121.2147598266602</v>
+        <v>113.5982131958008</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>220.2008361816406</v>
+        <v>210.1021270751953</v>
       </c>
       <c r="H6" t="n">
-        <v>66.34548950195312</v>
+        <v>82.77809906005859</v>
       </c>
       <c r="I6" t="n">
-        <v>494.86962890625</v>
+        <v>485.3314208984375</v>
       </c>
       <c r="J6" t="n">
-        <v>133.7530212402344</v>
+        <v>129.3152160644531</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>149.4233856201172</v>
+        <v>134.7669067382812</v>
       </c>
       <c r="H7" t="n">
-        <v>80.20565032958984</v>
+        <v>84.23382568359375</v>
       </c>
       <c r="I7" t="n">
-        <v>382.0301513671875</v>
+        <v>369.6624450683594</v>
       </c>
       <c r="J7" t="n">
-        <v>80.13105010986328</v>
+        <v>83.08891296386719</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>159.9183654785156</v>
+        <v>141.0916595458984</v>
       </c>
       <c r="H8" t="n">
-        <v>73.18914794921875</v>
+        <v>80.84447479248047</v>
       </c>
       <c r="I8" t="n">
-        <v>414.4048156738281</v>
+        <v>398.5005187988281</v>
       </c>
       <c r="J8" t="n">
-        <v>81.07023620605469</v>
+        <v>85.2974853515625</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>170.0218963623047</v>
+        <v>150.6367645263672</v>
       </c>
       <c r="H9" t="n">
-        <v>71.93634033203125</v>
+        <v>80.49373626708984</v>
       </c>
       <c r="I9" t="n">
-        <v>439.3788146972656</v>
+        <v>421.9146423339844</v>
       </c>
       <c r="J9" t="n">
-        <v>88.64501953125</v>
+        <v>85.86904907226562</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>184.5081939697266</v>
+        <v>169.6321411132812</v>
       </c>
       <c r="H10" t="n">
-        <v>65.40408325195312</v>
+        <v>80.91557312011719</v>
       </c>
       <c r="I10" t="n">
-        <v>450.6931762695312</v>
+        <v>427.9219055175781</v>
       </c>
       <c r="J10" t="n">
-        <v>97.35097503662109</v>
+        <v>92.58646392822266</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>210.4241333007812</v>
+        <v>186.2247467041016</v>
       </c>
       <c r="H11" t="n">
-        <v>63.43001556396484</v>
+        <v>80.78759002685547</v>
       </c>
       <c r="I11" t="n">
-        <v>461.9846496582031</v>
+        <v>442.9259948730469</v>
       </c>
       <c r="J11" t="n">
-        <v>106.9155426025391</v>
+        <v>102.3645553588867</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>219.15234375</v>
+        <v>210.5910034179688</v>
       </c>
       <c r="H12" t="n">
-        <v>60.09098052978516</v>
+        <v>77.86438751220703</v>
       </c>
       <c r="I12" t="n">
-        <v>448.0322265625</v>
+        <v>443.2820434570312</v>
       </c>
       <c r="J12" t="n">
-        <v>125.4157409667969</v>
+        <v>116.1788558959961</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2913818359375</v>
+        <v>257.5582580566406</v>
       </c>
       <c r="H13" t="n">
-        <v>61.73762893676758</v>
+        <v>74.25906372070312</v>
       </c>
       <c r="I13" t="n">
-        <v>410.6032104492188</v>
+        <v>440.7992248535156</v>
       </c>
       <c r="J13" t="n">
-        <v>152.9853515625</v>
+        <v>154.4292449951172</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2157440185547</v>
+        <v>119.4571228027344</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34890747070312</v>
+        <v>84.80062866210938</v>
       </c>
       <c r="I14" t="n">
-        <v>233.6800842285156</v>
+        <v>214.3367767333984</v>
       </c>
       <c r="J14" t="n">
-        <v>79.76174926757812</v>
+        <v>83.34071350097656</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>145.1311187744141</v>
+        <v>138.2662963867188</v>
       </c>
       <c r="H15" t="n">
-        <v>82.95912933349609</v>
+        <v>84.62383270263672</v>
       </c>
       <c r="I15" t="n">
-        <v>287.1992797851562</v>
+        <v>259.2602233886719</v>
       </c>
       <c r="J15" t="n">
-        <v>81.25357818603516</v>
+        <v>82.79725646972656</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>161.3426361083984</v>
+        <v>148.5375823974609</v>
       </c>
       <c r="H16" t="n">
-        <v>74.72003173828125</v>
+        <v>76.41646575927734</v>
       </c>
       <c r="I16" t="n">
-        <v>328.36767578125</v>
+        <v>312.4823913574219</v>
       </c>
       <c r="J16" t="n">
-        <v>77.85067749023438</v>
+        <v>85.49475860595703</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>176.0181121826172</v>
+        <v>159.7955474853516</v>
       </c>
       <c r="H17" t="n">
-        <v>69.15464782714844</v>
+        <v>74.92622375488281</v>
       </c>
       <c r="I17" t="n">
-        <v>375.0539855957031</v>
+        <v>356.1190490722656</v>
       </c>
       <c r="J17" t="n">
-        <v>81.82231903076172</v>
+        <v>84.06726837158203</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>190.0150451660156</v>
+        <v>169.5764770507812</v>
       </c>
       <c r="H18" t="n">
-        <v>64.25038146972656</v>
+        <v>69.18534851074219</v>
       </c>
       <c r="I18" t="n">
-        <v>389.5702209472656</v>
+        <v>370.7510986328125</v>
       </c>
       <c r="J18" t="n">
-        <v>90.88198852539062</v>
+        <v>88.27304077148438</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>209.2690277099609</v>
+        <v>190.7375183105469</v>
       </c>
       <c r="H19" t="n">
-        <v>61.0046272277832</v>
+        <v>71.95831298828125</v>
       </c>
       <c r="I19" t="n">
-        <v>403.0492553710938</v>
+        <v>392.3825988769531</v>
       </c>
       <c r="J19" t="n">
-        <v>99.80494689941406</v>
+        <v>99.54946136474609</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>225.4539794921875</v>
+        <v>211.7915802001953</v>
       </c>
       <c r="H20" t="n">
-        <v>58.60882568359375</v>
+        <v>76.55384063720703</v>
       </c>
       <c r="I20" t="n">
-        <v>397.4888610839844</v>
+        <v>399.2161865234375</v>
       </c>
       <c r="J20" t="n">
-        <v>118.3860092163086</v>
+        <v>114.63671875</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>259.5474243164062</v>
+        <v>264.2208251953125</v>
       </c>
       <c r="H21" t="n">
-        <v>62.64648818969727</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="I21" t="n">
-        <v>380.2120666503906</v>
+        <v>406.1368103027344</v>
       </c>
       <c r="J21" t="n">
-        <v>146.0956878662109</v>
+        <v>156.3514099121094</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>334.1441040039062</v>
+        <v>351.3176879882812</v>
       </c>
       <c r="H22" t="n">
-        <v>79.69481658935547</v>
+        <v>82.45008087158203</v>
       </c>
       <c r="I22" t="n">
-        <v>370.4558715820312</v>
+        <v>409.5064392089844</v>
       </c>
       <c r="J22" t="n">
-        <v>185.8368225097656</v>
+        <v>210.2651519775391</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>122.3134613037109</v>
+        <v>116.512565612793</v>
       </c>
       <c r="H23" t="n">
-        <v>90.38982391357422</v>
+        <v>89.79502105712891</v>
       </c>
       <c r="I23" t="n">
-        <v>171.4002227783203</v>
+        <v>158.61962890625</v>
       </c>
       <c r="J23" t="n">
-        <v>81.33104705810547</v>
+        <v>79.63980102539062</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>141.4161834716797</v>
+        <v>133.7628326416016</v>
       </c>
       <c r="H24" t="n">
-        <v>80.86433410644531</v>
+        <v>81.33611297607422</v>
       </c>
       <c r="I24" t="n">
-        <v>215.6149444580078</v>
+        <v>196.77783203125</v>
       </c>
       <c r="J24" t="n">
-        <v>84.30063629150391</v>
+        <v>77.41867065429688</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>156.5342407226562</v>
+        <v>148.2245330810547</v>
       </c>
       <c r="H25" t="n">
-        <v>73.5767822265625</v>
+        <v>82.03839874267578</v>
       </c>
       <c r="I25" t="n">
-        <v>248.1810913085938</v>
+        <v>226.5305938720703</v>
       </c>
       <c r="J25" t="n">
-        <v>80.27545928955078</v>
+        <v>79.05316162109375</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>177.5886688232422</v>
+        <v>164.5211486816406</v>
       </c>
       <c r="H26" t="n">
-        <v>71.66688537597656</v>
+        <v>74.53831481933594</v>
       </c>
       <c r="I26" t="n">
-        <v>295.2593078613281</v>
+        <v>269.5112915039062</v>
       </c>
       <c r="J26" t="n">
-        <v>81.76881408691406</v>
+        <v>83.671630859375</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>189.7635650634766</v>
+        <v>174.4390106201172</v>
       </c>
       <c r="H27" t="n">
-        <v>69.26560974121094</v>
+        <v>69.84879302978516</v>
       </c>
       <c r="I27" t="n">
-        <v>333.1863708496094</v>
+        <v>310.1126708984375</v>
       </c>
       <c r="J27" t="n">
-        <v>88.1085205078125</v>
+        <v>91.80312347412109</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>205.2464904785156</v>
+        <v>190.2677459716797</v>
       </c>
       <c r="H28" t="n">
-        <v>59.52798080444336</v>
+        <v>72.26930236816406</v>
       </c>
       <c r="I28" t="n">
-        <v>357.0747985839844</v>
+        <v>331.8975219726562</v>
       </c>
       <c r="J28" t="n">
-        <v>97.20742797851562</v>
+        <v>97.33219146728516</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>231.5603179931641</v>
+        <v>218.6352386474609</v>
       </c>
       <c r="H29" t="n">
-        <v>61.80604934692383</v>
+        <v>68.21611785888672</v>
       </c>
       <c r="I29" t="n">
-        <v>358.533203125</v>
+        <v>360.7991638183594</v>
       </c>
       <c r="J29" t="n">
-        <v>118.5600128173828</v>
+        <v>127.7904891967773</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>273.6463928222656</v>
+        <v>284.2317504882812</v>
       </c>
       <c r="H30" t="n">
-        <v>62.00922012329102</v>
+        <v>71.32443237304688</v>
       </c>
       <c r="I30" t="n">
-        <v>360.0526428222656</v>
+        <v>387.19482421875</v>
       </c>
       <c r="J30" t="n">
-        <v>139.90673828125</v>
+        <v>166.4049530029297</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>347.1208190917969</v>
+        <v>358.9241027832031</v>
       </c>
       <c r="H31" t="n">
-        <v>73.55974578857422</v>
+        <v>81.46906280517578</v>
       </c>
       <c r="I31" t="n">
-        <v>350.8321533203125</v>
+        <v>377.7906799316406</v>
       </c>
       <c r="J31" t="n">
-        <v>181.2578582763672</v>
+        <v>202.2628173828125</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>120.7617416381836</v>
+        <v>113.1272811889648</v>
       </c>
       <c r="H32" t="n">
-        <v>92.10781097412109</v>
+        <v>86.27388000488281</v>
       </c>
       <c r="I32" t="n">
-        <v>124.5340728759766</v>
+        <v>116.4082260131836</v>
       </c>
       <c r="J32" t="n">
-        <v>77.78517150878906</v>
+        <v>72.02657318115234</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>142.0545349121094</v>
+        <v>132.5832824707031</v>
       </c>
       <c r="H33" t="n">
-        <v>84.73120880126953</v>
+        <v>79.82236480712891</v>
       </c>
       <c r="I33" t="n">
-        <v>159.7080078125</v>
+        <v>142.4935150146484</v>
       </c>
       <c r="J33" t="n">
-        <v>71.14553070068359</v>
+        <v>70.50680541992188</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8953704833984</v>
+        <v>154.5272827148438</v>
       </c>
       <c r="H34" t="n">
-        <v>78.75235748291016</v>
+        <v>75.54662322998047</v>
       </c>
       <c r="I34" t="n">
-        <v>186.6096801757812</v>
+        <v>172.6272277832031</v>
       </c>
       <c r="J34" t="n">
-        <v>79.87023162841797</v>
+        <v>78.79635620117188</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>174.9692687988281</v>
+        <v>165.1819000244141</v>
       </c>
       <c r="H35" t="n">
-        <v>67.27655029296875</v>
+        <v>69.21581268310547</v>
       </c>
       <c r="I35" t="n">
-        <v>222.28857421875</v>
+        <v>204.8049926757812</v>
       </c>
       <c r="J35" t="n">
-        <v>74.40126800537109</v>
+        <v>81.74520111083984</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>189.6652069091797</v>
+        <v>182.4726409912109</v>
       </c>
       <c r="H36" t="n">
-        <v>64.53170776367188</v>
+        <v>66.95977783203125</v>
       </c>
       <c r="I36" t="n">
-        <v>265.3356628417969</v>
+        <v>241.9136657714844</v>
       </c>
       <c r="J36" t="n">
-        <v>83.26632690429688</v>
+        <v>90.25183868408203</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>205.9473419189453</v>
+        <v>185.8406829833984</v>
       </c>
       <c r="H37" t="n">
-        <v>62.09987640380859</v>
+        <v>64.86909484863281</v>
       </c>
       <c r="I37" t="n">
-        <v>297.21044921875</v>
+        <v>268.9598999023438</v>
       </c>
       <c r="J37" t="n">
-        <v>92.60208892822266</v>
+        <v>107.9385223388672</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>231.2969818115234</v>
+        <v>220.9694976806641</v>
       </c>
       <c r="H38" t="n">
-        <v>59.64510726928711</v>
+        <v>59.96052551269531</v>
       </c>
       <c r="I38" t="n">
-        <v>325.1574096679688</v>
+        <v>305.100341796875</v>
       </c>
       <c r="J38" t="n">
-        <v>111.2360763549805</v>
+        <v>129.7151641845703</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>282.9851684570312</v>
+        <v>275.9533996582031</v>
       </c>
       <c r="H39" t="n">
-        <v>70.13468170166016</v>
+        <v>69.84748077392578</v>
       </c>
       <c r="I39" t="n">
-        <v>323.8690795898438</v>
+        <v>334.5137634277344</v>
       </c>
       <c r="J39" t="n">
-        <v>135.78076171875</v>
+        <v>166.1390075683594</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>359.5359191894531</v>
+        <v>367.0309143066406</v>
       </c>
       <c r="H40" t="n">
-        <v>74.66178131103516</v>
+        <v>85.215087890625</v>
       </c>
       <c r="I40" t="n">
-        <v>332.6129760742188</v>
+        <v>360.3614807128906</v>
       </c>
       <c r="J40" t="n">
-        <v>180.3476867675781</v>
+        <v>199.310546875</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>133.6202545166016</v>
+        <v>117.273193359375</v>
       </c>
       <c r="H41" t="n">
-        <v>90.58859252929688</v>
+        <v>84.51667785644531</v>
       </c>
       <c r="I41" t="n">
-        <v>86.26029968261719</v>
+        <v>87.75923919677734</v>
       </c>
       <c r="J41" t="n">
-        <v>79.80972290039062</v>
+        <v>70.33480072021484</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>145.1725158691406</v>
+        <v>138.0165710449219</v>
       </c>
       <c r="H42" t="n">
-        <v>81.17808532714844</v>
+        <v>79.41757202148438</v>
       </c>
       <c r="I42" t="n">
-        <v>113.2390594482422</v>
+        <v>106.3938522338867</v>
       </c>
       <c r="J42" t="n">
-        <v>73.17634582519531</v>
+        <v>72.57786560058594</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>162.6037445068359</v>
+        <v>154.1427612304688</v>
       </c>
       <c r="H43" t="n">
-        <v>76.16649627685547</v>
+        <v>74.59896850585938</v>
       </c>
       <c r="I43" t="n">
-        <v>132.4840545654297</v>
+        <v>128.1417694091797</v>
       </c>
       <c r="J43" t="n">
-        <v>73.80842590332031</v>
+        <v>75.25625610351562</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>181.82958984375</v>
+        <v>170.9978942871094</v>
       </c>
       <c r="H44" t="n">
-        <v>72.95549774169922</v>
+        <v>71.96806335449219</v>
       </c>
       <c r="I44" t="n">
-        <v>170.4402770996094</v>
+        <v>153.4212799072266</v>
       </c>
       <c r="J44" t="n">
-        <v>76.05313110351562</v>
+        <v>74.06412506103516</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>193.4281921386719</v>
+        <v>184.24755859375</v>
       </c>
       <c r="H45" t="n">
-        <v>65.18326568603516</v>
+        <v>63.41213989257812</v>
       </c>
       <c r="I45" t="n">
-        <v>199.1095733642578</v>
+        <v>181.8569183349609</v>
       </c>
       <c r="J45" t="n">
-        <v>75.26618957519531</v>
+        <v>83.58591461181641</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6023101806641</v>
+        <v>194.24072265625</v>
       </c>
       <c r="H46" t="n">
-        <v>64.70160675048828</v>
+        <v>61.29092407226562</v>
       </c>
       <c r="I46" t="n">
-        <v>242.6494750976562</v>
+        <v>224.9981842041016</v>
       </c>
       <c r="J46" t="n">
-        <v>87.89957427978516</v>
+        <v>111.5171203613281</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>229.0440826416016</v>
+        <v>216.2484741210938</v>
       </c>
       <c r="H47" t="n">
-        <v>67.57442474365234</v>
+        <v>64.80551147460938</v>
       </c>
       <c r="I47" t="n">
-        <v>271.0029602050781</v>
+        <v>262.1959838867188</v>
       </c>
       <c r="J47" t="n">
-        <v>109.6278457641602</v>
+        <v>140.0972595214844</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>292.4678955078125</v>
+        <v>277.3979187011719</v>
       </c>
       <c r="H48" t="n">
-        <v>68.13855743408203</v>
+        <v>64.96225738525391</v>
       </c>
       <c r="I48" t="n">
-        <v>302.5453796386719</v>
+        <v>301.5167846679688</v>
       </c>
       <c r="J48" t="n">
-        <v>139.822021484375</v>
+        <v>171.1965637207031</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>362.2281188964844</v>
+        <v>367.0779724121094</v>
       </c>
       <c r="H49" t="n">
-        <v>73.80017852783203</v>
+        <v>86.36604309082031</v>
       </c>
       <c r="I49" t="n">
-        <v>328.716796875</v>
+        <v>340.6311950683594</v>
       </c>
       <c r="J49" t="n">
-        <v>186.8471984863281</v>
+        <v>189.3885345458984</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>151.5946960449219</v>
+        <v>133.8207092285156</v>
       </c>
       <c r="H50" t="n">
-        <v>84.0257568359375</v>
+        <v>79.9803466796875</v>
       </c>
       <c r="I50" t="n">
-        <v>54.65943908691406</v>
+        <v>60.59689331054688</v>
       </c>
       <c r="J50" t="n">
-        <v>82.07712554931641</v>
+        <v>71.80405426025391</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>160.9276885986328</v>
+        <v>144.0881805419922</v>
       </c>
       <c r="H51" t="n">
-        <v>78.07416534423828</v>
+        <v>76.37849426269531</v>
       </c>
       <c r="I51" t="n">
-        <v>73.23635101318359</v>
+        <v>72.26078033447266</v>
       </c>
       <c r="J51" t="n">
-        <v>75.47417449951172</v>
+        <v>69.8724365234375</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>175.5811920166016</v>
+        <v>160.9756927490234</v>
       </c>
       <c r="H52" t="n">
-        <v>74.63913726806641</v>
+        <v>70.20140838623047</v>
       </c>
       <c r="I52" t="n">
-        <v>84.09342193603516</v>
+        <v>79.57801055908203</v>
       </c>
       <c r="J52" t="n">
-        <v>70.92871856689453</v>
+        <v>72.70931243896484</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>185.7857971191406</v>
+        <v>177.5425415039062</v>
       </c>
       <c r="H53" t="n">
-        <v>66.70761871337891</v>
+        <v>66.35478973388672</v>
       </c>
       <c r="I53" t="n">
-        <v>110.8512496948242</v>
+        <v>104.6146926879883</v>
       </c>
       <c r="J53" t="n">
-        <v>73.05972290039062</v>
+        <v>77.48794555664062</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>199.7452239990234</v>
+        <v>189.2015991210938</v>
       </c>
       <c r="H54" t="n">
-        <v>65.29503631591797</v>
+        <v>64.56861114501953</v>
       </c>
       <c r="I54" t="n">
-        <v>138.9932556152344</v>
+        <v>137.2926940917969</v>
       </c>
       <c r="J54" t="n">
-        <v>73.62729644775391</v>
+        <v>84.04525756835938</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>211.5827484130859</v>
+        <v>198.8777313232422</v>
       </c>
       <c r="H55" t="n">
-        <v>66.16996765136719</v>
+        <v>64.57009124755859</v>
       </c>
       <c r="I55" t="n">
-        <v>178.1775512695312</v>
+        <v>164.4559326171875</v>
       </c>
       <c r="J55" t="n">
-        <v>83.33157348632812</v>
+        <v>107.6042022705078</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>238.7626342773438</v>
+        <v>221.1072692871094</v>
       </c>
       <c r="H56" t="n">
-        <v>64.63388061523438</v>
+        <v>59.74309158325195</v>
       </c>
       <c r="I56" t="n">
-        <v>231.7756500244141</v>
+        <v>218.1820831298828</v>
       </c>
       <c r="J56" t="n">
-        <v>106.1555938720703</v>
+        <v>141.1169738769531</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>288.7081909179688</v>
+        <v>272.9867553710938</v>
       </c>
       <c r="H57" t="n">
-        <v>66.40804290771484</v>
+        <v>61.36323928833008</v>
       </c>
       <c r="I57" t="n">
-        <v>275.7137451171875</v>
+        <v>273.9283142089844</v>
       </c>
       <c r="J57" t="n">
-        <v>139.1057739257812</v>
+        <v>165.0018463134766</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>358.0762023925781</v>
+        <v>351.160400390625</v>
       </c>
       <c r="H58" t="n">
-        <v>69.29385375976562</v>
+        <v>85.12293243408203</v>
       </c>
       <c r="I58" t="n">
-        <v>311.8367004394531</v>
+        <v>313.5171203613281</v>
       </c>
       <c r="J58" t="n">
-        <v>195.2486724853516</v>
+        <v>182.1636047363281</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>178.8542022705078</v>
+        <v>158.0972442626953</v>
       </c>
       <c r="H59" t="n">
-        <v>72.78903198242188</v>
+        <v>77.33003234863281</v>
       </c>
       <c r="I59" t="n">
-        <v>33.46361541748047</v>
+        <v>29.24344635009766</v>
       </c>
       <c r="J59" t="n">
-        <v>82.91872406005859</v>
+        <v>72.23482513427734</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>189.1066284179688</v>
+        <v>175.3951110839844</v>
       </c>
       <c r="H60" t="n">
-        <v>70.05017852783203</v>
+        <v>70.96453857421875</v>
       </c>
       <c r="I60" t="n">
-        <v>48.90908432006836</v>
+        <v>39.45162200927734</v>
       </c>
       <c r="J60" t="n">
-        <v>78.3983154296875</v>
+        <v>74.55198669433594</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>202.8730621337891</v>
+        <v>181.5768585205078</v>
       </c>
       <c r="H61" t="n">
-        <v>63.54034423828125</v>
+        <v>70.34142303466797</v>
       </c>
       <c r="I61" t="n">
-        <v>69.55037689208984</v>
+        <v>61.11399078369141</v>
       </c>
       <c r="J61" t="n">
-        <v>77.0013427734375</v>
+        <v>82.57717895507812</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>215.6433715820312</v>
+        <v>194.8110961914062</v>
       </c>
       <c r="H62" t="n">
-        <v>63.07583236694336</v>
+        <v>66.23183441162109</v>
       </c>
       <c r="I62" t="n">
-        <v>92.79673004150391</v>
+        <v>86.0849609375</v>
       </c>
       <c r="J62" t="n">
-        <v>75.17530822753906</v>
+        <v>86.28305053710938</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>229.8124542236328</v>
+        <v>204.8067932128906</v>
       </c>
       <c r="H63" t="n">
-        <v>61.99871063232422</v>
+        <v>65.79373931884766</v>
       </c>
       <c r="I63" t="n">
-        <v>131.6980590820312</v>
+        <v>120.8993453979492</v>
       </c>
       <c r="J63" t="n">
-        <v>77.70313262939453</v>
+        <v>109.4943695068359</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>246.0804443359375</v>
+        <v>228.0821685791016</v>
       </c>
       <c r="H64" t="n">
-        <v>67.74395751953125</v>
+        <v>63.74544906616211</v>
       </c>
       <c r="I64" t="n">
-        <v>194.0680541992188</v>
+        <v>168.9366149902344</v>
       </c>
       <c r="J64" t="n">
-        <v>102.5268020629883</v>
+        <v>131.2733306884766</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>286.6865234375</v>
+        <v>266.0711975097656</v>
       </c>
       <c r="H65" t="n">
-        <v>69.29542541503906</v>
+        <v>67.36600494384766</v>
       </c>
       <c r="I65" t="n">
-        <v>245.50634765625</v>
+        <v>231.3106994628906</v>
       </c>
       <c r="J65" t="n">
-        <v>150.4856414794922</v>
+        <v>155.7630920410156</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>207.1551361083984</v>
+        <v>190.519287109375</v>
       </c>
       <c r="H66" t="n">
-        <v>63.69998550415039</v>
+        <v>67.91777801513672</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.8635344505310059</v>
+        <v>-11.3234167098999</v>
       </c>
       <c r="J66" t="n">
-        <v>84.81700897216797</v>
+        <v>87.1846923828125</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>217.540283203125</v>
+        <v>203.9725799560547</v>
       </c>
       <c r="H67" t="n">
-        <v>57.50539016723633</v>
+        <v>69.10784149169922</v>
       </c>
       <c r="I67" t="n">
-        <v>17.01058006286621</v>
+        <v>9.496442794799805</v>
       </c>
       <c r="J67" t="n">
-        <v>79.67662811279297</v>
+        <v>90.2783203125</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>228.3378601074219</v>
+        <v>207.5826568603516</v>
       </c>
       <c r="H68" t="n">
-        <v>62.36020660400391</v>
+        <v>61.04690551757812</v>
       </c>
       <c r="I68" t="n">
-        <v>43.98059844970703</v>
+        <v>31.78885650634766</v>
       </c>
       <c r="J68" t="n">
-        <v>82.06536102294922</v>
+        <v>95.11965942382812</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>240.3724975585938</v>
+        <v>215.29052734375</v>
       </c>
       <c r="H69" t="n">
-        <v>62.43513488769531</v>
+        <v>66.59931945800781</v>
       </c>
       <c r="I69" t="n">
-        <v>86.97814178466797</v>
+        <v>75.98861694335938</v>
       </c>
       <c r="J69" t="n">
-        <v>83.15212249755859</v>
+        <v>102.5339508056641</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>255.7767639160156</v>
+        <v>230.1860656738281</v>
       </c>
       <c r="H70" t="n">
-        <v>65.65740966796875</v>
+        <v>65.10813903808594</v>
       </c>
       <c r="I70" t="n">
-        <v>147.4763336181641</v>
+        <v>134.7032012939453</v>
       </c>
       <c r="J70" t="n">
-        <v>101.9748229980469</v>
+        <v>123.215934753418</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>132.9303436279297</v>
+        <v>147.0185852050781</v>
       </c>
       <c r="H2" t="n">
-        <v>93.85756683349609</v>
+        <v>77.25788116455078</v>
       </c>
       <c r="I2" t="n">
-        <v>468.9796752929688</v>
+        <v>471.7723388671875</v>
       </c>
       <c r="J2" t="n">
-        <v>88.33750915527344</v>
+        <v>93.20902252197266</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>138.2059173583984</v>
+        <v>150.2312316894531</v>
       </c>
       <c r="H3" t="n">
-        <v>102.988525390625</v>
+        <v>80.47439575195312</v>
       </c>
       <c r="I3" t="n">
-        <v>485.4430236816406</v>
+        <v>484.2525024414062</v>
       </c>
       <c r="J3" t="n">
-        <v>98.60566711425781</v>
+        <v>101.8099975585938</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5339508056641</v>
+        <v>159.5407257080078</v>
       </c>
       <c r="H4" t="n">
-        <v>89.90825653076172</v>
+        <v>81.30736541748047</v>
       </c>
       <c r="I4" t="n">
-        <v>491.3038635253906</v>
+        <v>504.1127624511719</v>
       </c>
       <c r="J4" t="n">
-        <v>103.6719741821289</v>
+        <v>108.0319137573242</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>186.81201171875</v>
+        <v>175.5616149902344</v>
       </c>
       <c r="H5" t="n">
-        <v>87.50068664550781</v>
+        <v>77.90133666992188</v>
       </c>
       <c r="I5" t="n">
-        <v>491.5860290527344</v>
+        <v>494.4256286621094</v>
       </c>
       <c r="J5" t="n">
-        <v>113.5982131958008</v>
+        <v>123.8123474121094</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>210.1021270751953</v>
+        <v>204.7932281494141</v>
       </c>
       <c r="H6" t="n">
-        <v>82.77809906005859</v>
+        <v>72.16390991210938</v>
       </c>
       <c r="I6" t="n">
-        <v>485.3314208984375</v>
+        <v>487.1643676757812</v>
       </c>
       <c r="J6" t="n">
-        <v>129.3152160644531</v>
+        <v>141.6210021972656</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>134.7669067382812</v>
+        <v>150.2759552001953</v>
       </c>
       <c r="H7" t="n">
-        <v>84.23382568359375</v>
+        <v>77.26091766357422</v>
       </c>
       <c r="I7" t="n">
-        <v>369.6624450683594</v>
+        <v>357.5215759277344</v>
       </c>
       <c r="J7" t="n">
-        <v>83.08891296386719</v>
+        <v>90.99179077148438</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>141.0916595458984</v>
+        <v>158.3230895996094</v>
       </c>
       <c r="H8" t="n">
-        <v>80.84447479248047</v>
+        <v>77.56559753417969</v>
       </c>
       <c r="I8" t="n">
-        <v>398.5005187988281</v>
+        <v>389.7413330078125</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2974853515625</v>
+        <v>92.38867950439453</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>150.6367645263672</v>
+        <v>165.6135864257812</v>
       </c>
       <c r="H9" t="n">
-        <v>80.49373626708984</v>
+        <v>70.97803497314453</v>
       </c>
       <c r="I9" t="n">
-        <v>421.9146423339844</v>
+        <v>418.8281860351562</v>
       </c>
       <c r="J9" t="n">
-        <v>85.86904907226562</v>
+        <v>97.45930480957031</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>169.6321411132812</v>
+        <v>176.4305267333984</v>
       </c>
       <c r="H10" t="n">
-        <v>80.91557312011719</v>
+        <v>72.37777709960938</v>
       </c>
       <c r="I10" t="n">
-        <v>427.9219055175781</v>
+        <v>423.6836242675781</v>
       </c>
       <c r="J10" t="n">
-        <v>92.58646392822266</v>
+        <v>95.72496795654297</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>186.2247467041016</v>
+        <v>193.2123870849609</v>
       </c>
       <c r="H11" t="n">
-        <v>80.78759002685547</v>
+        <v>70.43199920654297</v>
       </c>
       <c r="I11" t="n">
-        <v>442.9259948730469</v>
+        <v>432.1754150390625</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3645553588867</v>
+        <v>114.292350769043</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>210.5910034179688</v>
+        <v>208.3797454833984</v>
       </c>
       <c r="H12" t="n">
-        <v>77.86438751220703</v>
+        <v>72.34520721435547</v>
       </c>
       <c r="I12" t="n">
-        <v>443.2820434570312</v>
+        <v>420.2026672363281</v>
       </c>
       <c r="J12" t="n">
-        <v>116.1788558959961</v>
+        <v>130.0382080078125</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>257.5582580566406</v>
+        <v>247.6877136230469</v>
       </c>
       <c r="H13" t="n">
-        <v>74.25906372070312</v>
+        <v>74.84714508056641</v>
       </c>
       <c r="I13" t="n">
-        <v>440.7992248535156</v>
+        <v>405.2255554199219</v>
       </c>
       <c r="J13" t="n">
-        <v>154.4292449951172</v>
+        <v>160.4854583740234</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>119.4571228027344</v>
+        <v>123.7114334106445</v>
       </c>
       <c r="H14" t="n">
-        <v>84.80062866210938</v>
+        <v>78.44773101806641</v>
       </c>
       <c r="I14" t="n">
-        <v>214.3367767333984</v>
+        <v>215.6097869873047</v>
       </c>
       <c r="J14" t="n">
-        <v>83.34071350097656</v>
+        <v>77.75351715087891</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>138.2662963867188</v>
+        <v>140.9683074951172</v>
       </c>
       <c r="H15" t="n">
-        <v>84.62383270263672</v>
+        <v>77.999755859375</v>
       </c>
       <c r="I15" t="n">
-        <v>259.2602233886719</v>
+        <v>260.6296691894531</v>
       </c>
       <c r="J15" t="n">
-        <v>82.79725646972656</v>
+        <v>82.84616851806641</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>148.5375823974609</v>
+        <v>156.3768310546875</v>
       </c>
       <c r="H16" t="n">
-        <v>76.41646575927734</v>
+        <v>75.62985229492188</v>
       </c>
       <c r="I16" t="n">
-        <v>312.4823913574219</v>
+        <v>302.5420837402344</v>
       </c>
       <c r="J16" t="n">
-        <v>85.49475860595703</v>
+        <v>91.08213043212891</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>159.7955474853516</v>
+        <v>169.5704803466797</v>
       </c>
       <c r="H17" t="n">
-        <v>74.92622375488281</v>
+        <v>75.40773773193359</v>
       </c>
       <c r="I17" t="n">
-        <v>356.1190490722656</v>
+        <v>337.7587280273438</v>
       </c>
       <c r="J17" t="n">
-        <v>84.06726837158203</v>
+        <v>90.84771728515625</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>169.5764770507812</v>
+        <v>179.8815307617188</v>
       </c>
       <c r="H18" t="n">
-        <v>69.18534851074219</v>
+        <v>68.50511932373047</v>
       </c>
       <c r="I18" t="n">
-        <v>370.7510986328125</v>
+        <v>351.9983825683594</v>
       </c>
       <c r="J18" t="n">
-        <v>88.27304077148438</v>
+        <v>97.29890441894531</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>190.7375183105469</v>
+        <v>196.6816101074219</v>
       </c>
       <c r="H19" t="n">
-        <v>71.95831298828125</v>
+        <v>63.68513107299805</v>
       </c>
       <c r="I19" t="n">
-        <v>392.3825988769531</v>
+        <v>377.0106811523438</v>
       </c>
       <c r="J19" t="n">
-        <v>99.54946136474609</v>
+        <v>104.1741180419922</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>211.7915802001953</v>
+        <v>210.31396484375</v>
       </c>
       <c r="H20" t="n">
-        <v>76.55384063720703</v>
+        <v>65.63259887695312</v>
       </c>
       <c r="I20" t="n">
-        <v>399.2161865234375</v>
+        <v>365.3395690917969</v>
       </c>
       <c r="J20" t="n">
-        <v>114.63671875</v>
+        <v>120.6772308349609</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>264.2208251953125</v>
+        <v>247.0838012695312</v>
       </c>
       <c r="H21" t="n">
-        <v>71.69000244140625</v>
+        <v>70.19524383544922</v>
       </c>
       <c r="I21" t="n">
-        <v>406.1368103027344</v>
+        <v>355.8045654296875</v>
       </c>
       <c r="J21" t="n">
-        <v>156.3514099121094</v>
+        <v>149.9330902099609</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>351.3176879882812</v>
+        <v>328.40478515625</v>
       </c>
       <c r="H22" t="n">
-        <v>82.45008087158203</v>
+        <v>87.79710388183594</v>
       </c>
       <c r="I22" t="n">
-        <v>409.5064392089844</v>
+        <v>310.8031311035156</v>
       </c>
       <c r="J22" t="n">
-        <v>210.2651519775391</v>
+        <v>174.1793670654297</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>116.512565612793</v>
+        <v>111.8709259033203</v>
       </c>
       <c r="H23" t="n">
-        <v>89.79502105712891</v>
+        <v>78.00080871582031</v>
       </c>
       <c r="I23" t="n">
-        <v>158.61962890625</v>
+        <v>153.0628967285156</v>
       </c>
       <c r="J23" t="n">
-        <v>79.63980102539062</v>
+        <v>77.74531555175781</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>133.7628326416016</v>
+        <v>132.3183898925781</v>
       </c>
       <c r="H24" t="n">
-        <v>81.33611297607422</v>
+        <v>83.76210021972656</v>
       </c>
       <c r="I24" t="n">
-        <v>196.77783203125</v>
+        <v>193.9306945800781</v>
       </c>
       <c r="J24" t="n">
-        <v>77.41867065429688</v>
+        <v>75.08258819580078</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>148.2245330810547</v>
+        <v>148.8479766845703</v>
       </c>
       <c r="H25" t="n">
-        <v>82.03839874267578</v>
+        <v>76.75973510742188</v>
       </c>
       <c r="I25" t="n">
-        <v>226.5305938720703</v>
+        <v>218.5672912597656</v>
       </c>
       <c r="J25" t="n">
-        <v>79.05316162109375</v>
+        <v>81.37017822265625</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>164.5211486816406</v>
+        <v>164.2714691162109</v>
       </c>
       <c r="H26" t="n">
-        <v>74.53831481933594</v>
+        <v>72.57649230957031</v>
       </c>
       <c r="I26" t="n">
-        <v>269.5112915039062</v>
+        <v>254.0231323242188</v>
       </c>
       <c r="J26" t="n">
-        <v>83.671630859375</v>
+        <v>86.32337951660156</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>174.4390106201172</v>
+        <v>180.3710632324219</v>
       </c>
       <c r="H27" t="n">
-        <v>69.84879302978516</v>
+        <v>68.56513977050781</v>
       </c>
       <c r="I27" t="n">
-        <v>310.1126708984375</v>
+        <v>286.0962524414062</v>
       </c>
       <c r="J27" t="n">
-        <v>91.80312347412109</v>
+        <v>90.71751403808594</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>190.2677459716797</v>
+        <v>193.4765777587891</v>
       </c>
       <c r="H28" t="n">
-        <v>72.26930236816406</v>
+        <v>64.155517578125</v>
       </c>
       <c r="I28" t="n">
-        <v>331.8975219726562</v>
+        <v>306.2486267089844</v>
       </c>
       <c r="J28" t="n">
-        <v>97.33219146728516</v>
+        <v>103.4599380493164</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>218.6352386474609</v>
+        <v>211.7361907958984</v>
       </c>
       <c r="H29" t="n">
-        <v>68.21611785888672</v>
+        <v>63.36331558227539</v>
       </c>
       <c r="I29" t="n">
-        <v>360.7991638183594</v>
+        <v>306.7591857910156</v>
       </c>
       <c r="J29" t="n">
-        <v>127.7904891967773</v>
+        <v>128.2745819091797</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>284.2317504882812</v>
+        <v>256.3179016113281</v>
       </c>
       <c r="H30" t="n">
-        <v>71.32443237304688</v>
+        <v>67.52584075927734</v>
       </c>
       <c r="I30" t="n">
-        <v>387.19482421875</v>
+        <v>322.1726684570312</v>
       </c>
       <c r="J30" t="n">
-        <v>166.4049530029297</v>
+        <v>155.8105621337891</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>358.9241027832031</v>
+        <v>338.6511840820312</v>
       </c>
       <c r="H31" t="n">
-        <v>81.46906280517578</v>
+        <v>80.02149963378906</v>
       </c>
       <c r="I31" t="n">
-        <v>377.7906799316406</v>
+        <v>261.7228698730469</v>
       </c>
       <c r="J31" t="n">
-        <v>202.2628173828125</v>
+        <v>177.3495483398438</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>113.1272811889648</v>
+        <v>109.1576232910156</v>
       </c>
       <c r="H32" t="n">
-        <v>86.27388000488281</v>
+        <v>85.32305908203125</v>
       </c>
       <c r="I32" t="n">
-        <v>116.4082260131836</v>
+        <v>107.3731155395508</v>
       </c>
       <c r="J32" t="n">
-        <v>72.02657318115234</v>
+        <v>68.86593627929688</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>132.5832824707031</v>
+        <v>135.8849945068359</v>
       </c>
       <c r="H33" t="n">
-        <v>79.82236480712891</v>
+        <v>78.42398071289062</v>
       </c>
       <c r="I33" t="n">
-        <v>142.4935150146484</v>
+        <v>137.0469970703125</v>
       </c>
       <c r="J33" t="n">
-        <v>70.50680541992188</v>
+        <v>71.94371795654297</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>154.5272827148438</v>
+        <v>151.0929260253906</v>
       </c>
       <c r="H34" t="n">
-        <v>75.54662322998047</v>
+        <v>75.54869842529297</v>
       </c>
       <c r="I34" t="n">
-        <v>172.6272277832031</v>
+        <v>168.4317779541016</v>
       </c>
       <c r="J34" t="n">
-        <v>78.79635620117188</v>
+        <v>74.98925018310547</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>165.1819000244141</v>
+        <v>161.3469390869141</v>
       </c>
       <c r="H35" t="n">
-        <v>69.21581268310547</v>
+        <v>73.57570648193359</v>
       </c>
       <c r="I35" t="n">
-        <v>204.8049926757812</v>
+        <v>195.1552886962891</v>
       </c>
       <c r="J35" t="n">
-        <v>81.74520111083984</v>
+        <v>79.23615264892578</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>182.4726409912109</v>
+        <v>175.3351593017578</v>
       </c>
       <c r="H36" t="n">
-        <v>66.95977783203125</v>
+        <v>74.9222412109375</v>
       </c>
       <c r="I36" t="n">
-        <v>241.9136657714844</v>
+        <v>230.4548492431641</v>
       </c>
       <c r="J36" t="n">
-        <v>90.25183868408203</v>
+        <v>90.89113616943359</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>185.8406829833984</v>
+        <v>184.4159698486328</v>
       </c>
       <c r="H37" t="n">
-        <v>64.86909484863281</v>
+        <v>71.19290161132812</v>
       </c>
       <c r="I37" t="n">
-        <v>268.9598999023438</v>
+        <v>242.2454986572266</v>
       </c>
       <c r="J37" t="n">
-        <v>107.9385223388672</v>
+        <v>102.1868896484375</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9694976806641</v>
+        <v>216.5359954833984</v>
       </c>
       <c r="H38" t="n">
-        <v>59.96052551269531</v>
+        <v>66.72686767578125</v>
       </c>
       <c r="I38" t="n">
-        <v>305.100341796875</v>
+        <v>259.9067077636719</v>
       </c>
       <c r="J38" t="n">
-        <v>129.7151641845703</v>
+        <v>124.2700424194336</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>275.9533996582031</v>
+        <v>254.7253875732422</v>
       </c>
       <c r="H39" t="n">
-        <v>69.84748077392578</v>
+        <v>72.14628601074219</v>
       </c>
       <c r="I39" t="n">
-        <v>334.5137634277344</v>
+        <v>258.9763793945312</v>
       </c>
       <c r="J39" t="n">
-        <v>166.1390075683594</v>
+        <v>140.7118682861328</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>367.0309143066406</v>
+        <v>341.1136779785156</v>
       </c>
       <c r="H40" t="n">
-        <v>85.215087890625</v>
+        <v>80.27181243896484</v>
       </c>
       <c r="I40" t="n">
-        <v>360.3614807128906</v>
+        <v>238.6667633056641</v>
       </c>
       <c r="J40" t="n">
-        <v>199.310546875</v>
+        <v>183.3516845703125</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>117.273193359375</v>
+        <v>111.6692047119141</v>
       </c>
       <c r="H41" t="n">
-        <v>84.51667785644531</v>
+        <v>88.53935241699219</v>
       </c>
       <c r="I41" t="n">
-        <v>87.75923919677734</v>
+        <v>77.93051147460938</v>
       </c>
       <c r="J41" t="n">
-        <v>70.33480072021484</v>
+        <v>74.85511779785156</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>138.0165710449219</v>
+        <v>137.1170959472656</v>
       </c>
       <c r="H42" t="n">
-        <v>79.41757202148438</v>
+        <v>80.72527313232422</v>
       </c>
       <c r="I42" t="n">
-        <v>106.3938522338867</v>
+        <v>96.07229614257812</v>
       </c>
       <c r="J42" t="n">
-        <v>72.57786560058594</v>
+        <v>71.69075012207031</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>154.1427612304688</v>
+        <v>149.8033599853516</v>
       </c>
       <c r="H43" t="n">
-        <v>74.59896850585938</v>
+        <v>79.13177490234375</v>
       </c>
       <c r="I43" t="n">
-        <v>128.1417694091797</v>
+        <v>119.1485900878906</v>
       </c>
       <c r="J43" t="n">
-        <v>75.25625610351562</v>
+        <v>74.98369598388672</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>170.9978942871094</v>
+        <v>167.9476165771484</v>
       </c>
       <c r="H44" t="n">
-        <v>71.96806335449219</v>
+        <v>73.92440032958984</v>
       </c>
       <c r="I44" t="n">
-        <v>153.4212799072266</v>
+        <v>146.4244537353516</v>
       </c>
       <c r="J44" t="n">
-        <v>74.06412506103516</v>
+        <v>75.18515777587891</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>184.24755859375</v>
+        <v>175.7142639160156</v>
       </c>
       <c r="H45" t="n">
-        <v>63.41213989257812</v>
+        <v>75.37247467041016</v>
       </c>
       <c r="I45" t="n">
-        <v>181.8569183349609</v>
+        <v>170.8220977783203</v>
       </c>
       <c r="J45" t="n">
-        <v>83.58591461181641</v>
+        <v>81.37054443359375</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>194.24072265625</v>
+        <v>190.2301483154297</v>
       </c>
       <c r="H46" t="n">
-        <v>61.29092407226562</v>
+        <v>72.08409118652344</v>
       </c>
       <c r="I46" t="n">
-        <v>224.9981842041016</v>
+        <v>207.6705169677734</v>
       </c>
       <c r="J46" t="n">
-        <v>111.5171203613281</v>
+        <v>109.0583343505859</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>216.2484741210938</v>
+        <v>211.4180145263672</v>
       </c>
       <c r="H47" t="n">
-        <v>64.80551147460938</v>
+        <v>66.14137268066406</v>
       </c>
       <c r="I47" t="n">
-        <v>262.1959838867188</v>
+        <v>220.3795318603516</v>
       </c>
       <c r="J47" t="n">
-        <v>140.0972595214844</v>
+        <v>130.9333953857422</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>277.3979187011719</v>
+        <v>264.984375</v>
       </c>
       <c r="H48" t="n">
-        <v>64.96225738525391</v>
+        <v>66.92960357666016</v>
       </c>
       <c r="I48" t="n">
-        <v>301.5167846679688</v>
+        <v>234.8049163818359</v>
       </c>
       <c r="J48" t="n">
-        <v>171.1965637207031</v>
+        <v>158.0293884277344</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>367.0779724121094</v>
+        <v>335.4361572265625</v>
       </c>
       <c r="H49" t="n">
-        <v>86.36604309082031</v>
+        <v>73.80439758300781</v>
       </c>
       <c r="I49" t="n">
-        <v>340.6311950683594</v>
+        <v>222.7120819091797</v>
       </c>
       <c r="J49" t="n">
-        <v>189.3885345458984</v>
+        <v>185.7107696533203</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>133.8207092285156</v>
+        <v>124.9771194458008</v>
       </c>
       <c r="H50" t="n">
-        <v>79.9803466796875</v>
+        <v>84.03661346435547</v>
       </c>
       <c r="I50" t="n">
-        <v>60.59689331054688</v>
+        <v>52.25743865966797</v>
       </c>
       <c r="J50" t="n">
-        <v>71.80405426025391</v>
+        <v>73.27845764160156</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>144.0881805419922</v>
+        <v>143.58935546875</v>
       </c>
       <c r="H51" t="n">
-        <v>76.37849426269531</v>
+        <v>82.22768402099609</v>
       </c>
       <c r="I51" t="n">
-        <v>72.26078033447266</v>
+        <v>63.36532592773438</v>
       </c>
       <c r="J51" t="n">
-        <v>69.8724365234375</v>
+        <v>71.48918151855469</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>160.9756927490234</v>
+        <v>157.9479675292969</v>
       </c>
       <c r="H52" t="n">
-        <v>70.20140838623047</v>
+        <v>77.00865936279297</v>
       </c>
       <c r="I52" t="n">
-        <v>79.57801055908203</v>
+        <v>78.45177459716797</v>
       </c>
       <c r="J52" t="n">
-        <v>72.70931243896484</v>
+        <v>72.54668426513672</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>177.5425415039062</v>
+        <v>172.7897186279297</v>
       </c>
       <c r="H53" t="n">
-        <v>66.35478973388672</v>
+        <v>75.84432220458984</v>
       </c>
       <c r="I53" t="n">
-        <v>104.6146926879883</v>
+        <v>99.57782745361328</v>
       </c>
       <c r="J53" t="n">
-        <v>77.48794555664062</v>
+        <v>77.95313262939453</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>189.2015991210938</v>
+        <v>183.6467132568359</v>
       </c>
       <c r="H54" t="n">
-        <v>64.56861114501953</v>
+        <v>73.89071655273438</v>
       </c>
       <c r="I54" t="n">
-        <v>137.2926940917969</v>
+        <v>127.194221496582</v>
       </c>
       <c r="J54" t="n">
-        <v>84.04525756835938</v>
+        <v>86.14402008056641</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>198.8777313232422</v>
+        <v>193.2157897949219</v>
       </c>
       <c r="H55" t="n">
-        <v>64.57009124755859</v>
+        <v>76.66986846923828</v>
       </c>
       <c r="I55" t="n">
-        <v>164.4559326171875</v>
+        <v>149.9365692138672</v>
       </c>
       <c r="J55" t="n">
-        <v>107.6042022705078</v>
+        <v>104.3500823974609</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>221.1072692871094</v>
+        <v>212.1113891601562</v>
       </c>
       <c r="H56" t="n">
-        <v>59.74309158325195</v>
+        <v>70.63401794433594</v>
       </c>
       <c r="I56" t="n">
-        <v>218.1820831298828</v>
+        <v>187.6539001464844</v>
       </c>
       <c r="J56" t="n">
-        <v>141.1169738769531</v>
+        <v>126.8358688354492</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>272.9867553710938</v>
+        <v>258.1623229980469</v>
       </c>
       <c r="H57" t="n">
-        <v>61.36323928833008</v>
+        <v>71.74479675292969</v>
       </c>
       <c r="I57" t="n">
-        <v>273.9283142089844</v>
+        <v>203.8945007324219</v>
       </c>
       <c r="J57" t="n">
-        <v>165.0018463134766</v>
+        <v>154.8073883056641</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>351.160400390625</v>
+        <v>328.9970092773438</v>
       </c>
       <c r="H58" t="n">
-        <v>85.12293243408203</v>
+        <v>75.68614196777344</v>
       </c>
       <c r="I58" t="n">
-        <v>313.5171203613281</v>
+        <v>199.3522338867188</v>
       </c>
       <c r="J58" t="n">
-        <v>182.1636047363281</v>
+        <v>188.1046600341797</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>158.0972442626953</v>
+        <v>157.2950134277344</v>
       </c>
       <c r="H59" t="n">
-        <v>77.33003234863281</v>
+        <v>78.03706359863281</v>
       </c>
       <c r="I59" t="n">
-        <v>29.24344635009766</v>
+        <v>28.98852920532227</v>
       </c>
       <c r="J59" t="n">
-        <v>72.23482513427734</v>
+        <v>72.29875946044922</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>175.3951110839844</v>
+        <v>177.5480346679688</v>
       </c>
       <c r="H60" t="n">
-        <v>70.96453857421875</v>
+        <v>77.721435546875</v>
       </c>
       <c r="I60" t="n">
-        <v>39.45162200927734</v>
+        <v>36.1983528137207</v>
       </c>
       <c r="J60" t="n">
-        <v>74.55198669433594</v>
+        <v>70.716796875</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>181.5768585205078</v>
+        <v>186.7849578857422</v>
       </c>
       <c r="H61" t="n">
-        <v>70.34142303466797</v>
+        <v>71.09040069580078</v>
       </c>
       <c r="I61" t="n">
-        <v>61.11399078369141</v>
+        <v>60.48947143554688</v>
       </c>
       <c r="J61" t="n">
-        <v>82.57717895507812</v>
+        <v>73.83616638183594</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>194.8110961914062</v>
+        <v>197.6938781738281</v>
       </c>
       <c r="H62" t="n">
-        <v>66.23183441162109</v>
+        <v>72.60170745849609</v>
       </c>
       <c r="I62" t="n">
-        <v>86.0849609375</v>
+        <v>79.69985961914062</v>
       </c>
       <c r="J62" t="n">
-        <v>86.28305053710938</v>
+        <v>83.68319702148438</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>204.8067932128906</v>
+        <v>208.823974609375</v>
       </c>
       <c r="H63" t="n">
-        <v>65.79373931884766</v>
+        <v>68.06187438964844</v>
       </c>
       <c r="I63" t="n">
-        <v>120.8993453979492</v>
+        <v>108.3737564086914</v>
       </c>
       <c r="J63" t="n">
-        <v>109.4943695068359</v>
+        <v>93.4674072265625</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>228.0821685791016</v>
+        <v>219.8292694091797</v>
       </c>
       <c r="H64" t="n">
-        <v>63.74544906616211</v>
+        <v>69.66377258300781</v>
       </c>
       <c r="I64" t="n">
-        <v>168.9366149902344</v>
+        <v>148.8713073730469</v>
       </c>
       <c r="J64" t="n">
-        <v>131.2733306884766</v>
+        <v>117.9586944580078</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>266.0711975097656</v>
+        <v>251.6037445068359</v>
       </c>
       <c r="H65" t="n">
-        <v>67.36600494384766</v>
+        <v>69.23978424072266</v>
       </c>
       <c r="I65" t="n">
-        <v>231.3106994628906</v>
+        <v>176.2600250244141</v>
       </c>
       <c r="J65" t="n">
-        <v>155.7630920410156</v>
+        <v>151.9128265380859</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>190.519287109375</v>
+        <v>194.0271148681641</v>
       </c>
       <c r="H66" t="n">
-        <v>67.91777801513672</v>
+        <v>74.96089172363281</v>
       </c>
       <c r="I66" t="n">
-        <v>-11.3234167098999</v>
+        <v>-18.21764183044434</v>
       </c>
       <c r="J66" t="n">
-        <v>87.1846923828125</v>
+        <v>67.05237579345703</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>203.9725799560547</v>
+        <v>200.1041870117188</v>
       </c>
       <c r="H67" t="n">
-        <v>69.10784149169922</v>
+        <v>72.59820556640625</v>
       </c>
       <c r="I67" t="n">
-        <v>9.496442794799805</v>
+        <v>5.655847072601318</v>
       </c>
       <c r="J67" t="n">
-        <v>90.2783203125</v>
+        <v>73.25458526611328</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>207.5826568603516</v>
+        <v>210.7979888916016</v>
       </c>
       <c r="H68" t="n">
-        <v>61.04690551757812</v>
+        <v>71.97137451171875</v>
       </c>
       <c r="I68" t="n">
-        <v>31.78885650634766</v>
+        <v>35.1093864440918</v>
       </c>
       <c r="J68" t="n">
-        <v>95.11965942382812</v>
+        <v>77.21868896484375</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>215.29052734375</v>
+        <v>219.3940582275391</v>
       </c>
       <c r="H69" t="n">
-        <v>66.59931945800781</v>
+        <v>68.26988983154297</v>
       </c>
       <c r="I69" t="n">
-        <v>75.98861694335938</v>
+        <v>65.37364959716797</v>
       </c>
       <c r="J69" t="n">
-        <v>102.5339508056641</v>
+        <v>91.919189453125</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>230.1860656738281</v>
+        <v>222.2037506103516</v>
       </c>
       <c r="H70" t="n">
-        <v>65.10813903808594</v>
+        <v>73.34810638427734</v>
       </c>
       <c r="I70" t="n">
-        <v>134.7032012939453</v>
+        <v>114.1661987304688</v>
       </c>
       <c r="J70" t="n">
-        <v>123.215934753418</v>
+        <v>117.9481887817383</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>147.0185852050781</v>
+        <v>231.0047607421875</v>
       </c>
       <c r="H2" t="n">
-        <v>77.25788116455078</v>
+        <v>68.07953643798828</v>
       </c>
       <c r="I2" t="n">
-        <v>471.7723388671875</v>
+        <v>460.7854614257812</v>
       </c>
       <c r="J2" t="n">
-        <v>93.20902252197266</v>
+        <v>115.4609756469727</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>150.2312316894531</v>
+        <v>245.5519866943359</v>
       </c>
       <c r="H3" t="n">
-        <v>80.47439575195312</v>
+        <v>64.78641510009766</v>
       </c>
       <c r="I3" t="n">
-        <v>484.2525024414062</v>
+        <v>468.7389526367188</v>
       </c>
       <c r="J3" t="n">
-        <v>101.8099975585938</v>
+        <v>122.97314453125</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>159.5407257080078</v>
+        <v>251.6520843505859</v>
       </c>
       <c r="H4" t="n">
-        <v>81.30736541748047</v>
+        <v>69.24530792236328</v>
       </c>
       <c r="I4" t="n">
-        <v>504.1127624511719</v>
+        <v>465.1305847167969</v>
       </c>
       <c r="J4" t="n">
-        <v>108.0319137573242</v>
+        <v>140.1401977539062</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>175.5616149902344</v>
+        <v>263.4609375</v>
       </c>
       <c r="H5" t="n">
-        <v>77.90133666992188</v>
+        <v>78.10561370849609</v>
       </c>
       <c r="I5" t="n">
-        <v>494.4256286621094</v>
+        <v>468.9458923339844</v>
       </c>
       <c r="J5" t="n">
-        <v>123.8123474121094</v>
+        <v>147.0462036132812</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>204.7932281494141</v>
+        <v>269.7089233398438</v>
       </c>
       <c r="H6" t="n">
-        <v>72.16390991210938</v>
+        <v>81.12657928466797</v>
       </c>
       <c r="I6" t="n">
-        <v>487.1643676757812</v>
+        <v>474.5147399902344</v>
       </c>
       <c r="J6" t="n">
-        <v>141.6210021972656</v>
+        <v>139.5444641113281</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>150.2759552001953</v>
+        <v>197.2777709960938</v>
       </c>
       <c r="H7" t="n">
-        <v>77.26091766357422</v>
+        <v>59.97463989257812</v>
       </c>
       <c r="I7" t="n">
-        <v>357.5215759277344</v>
+        <v>388.8772583007812</v>
       </c>
       <c r="J7" t="n">
-        <v>90.99179077148438</v>
+        <v>89.82822418212891</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>158.3230895996094</v>
+        <v>212.0658264160156</v>
       </c>
       <c r="H8" t="n">
-        <v>77.56559753417969</v>
+        <v>55.85376358032227</v>
       </c>
       <c r="I8" t="n">
-        <v>389.7413330078125</v>
+        <v>417.8277587890625</v>
       </c>
       <c r="J8" t="n">
-        <v>92.38867950439453</v>
+        <v>95.33377838134766</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>165.6135864257812</v>
+        <v>220.8704986572266</v>
       </c>
       <c r="H9" t="n">
-        <v>70.97803497314453</v>
+        <v>55.84315872192383</v>
       </c>
       <c r="I9" t="n">
-        <v>418.8281860351562</v>
+        <v>436.6790161132812</v>
       </c>
       <c r="J9" t="n">
-        <v>97.45930480957031</v>
+        <v>104.0034942626953</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>176.4305267333984</v>
+        <v>232.4273681640625</v>
       </c>
       <c r="H10" t="n">
-        <v>72.37777709960938</v>
+        <v>58.40213012695312</v>
       </c>
       <c r="I10" t="n">
-        <v>423.6836242675781</v>
+        <v>436.5567626953125</v>
       </c>
       <c r="J10" t="n">
-        <v>95.72496795654297</v>
+        <v>102.6083908081055</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>193.2123870849609</v>
+        <v>246.2569580078125</v>
       </c>
       <c r="H11" t="n">
-        <v>70.43199920654297</v>
+        <v>69.357421875</v>
       </c>
       <c r="I11" t="n">
-        <v>432.1754150390625</v>
+        <v>433.6945190429688</v>
       </c>
       <c r="J11" t="n">
-        <v>114.292350769043</v>
+        <v>116.5903167724609</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>208.3797454833984</v>
+        <v>261.193359375</v>
       </c>
       <c r="H12" t="n">
-        <v>72.34520721435547</v>
+        <v>78.12423706054688</v>
       </c>
       <c r="I12" t="n">
-        <v>420.2026672363281</v>
+        <v>435.7204284667969</v>
       </c>
       <c r="J12" t="n">
-        <v>130.0382080078125</v>
+        <v>120.1539077758789</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6877136230469</v>
+        <v>289.5758056640625</v>
       </c>
       <c r="H13" t="n">
-        <v>74.84714508056641</v>
+        <v>85.62980651855469</v>
       </c>
       <c r="I13" t="n">
-        <v>405.2255554199219</v>
+        <v>446.2821960449219</v>
       </c>
       <c r="J13" t="n">
-        <v>160.4854583740234</v>
+        <v>143.9141693115234</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>123.7114334106445</v>
+        <v>173.9399261474609</v>
       </c>
       <c r="H14" t="n">
-        <v>78.44773101806641</v>
+        <v>64.34102630615234</v>
       </c>
       <c r="I14" t="n">
-        <v>215.6097869873047</v>
+        <v>202.5541076660156</v>
       </c>
       <c r="J14" t="n">
-        <v>77.75351715087891</v>
+        <v>83.78900146484375</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>140.9683074951172</v>
+        <v>187.3252716064453</v>
       </c>
       <c r="H15" t="n">
-        <v>77.999755859375</v>
+        <v>59.29961395263672</v>
       </c>
       <c r="I15" t="n">
-        <v>260.6296691894531</v>
+        <v>277.6687622070312</v>
       </c>
       <c r="J15" t="n">
-        <v>82.84616851806641</v>
+        <v>86.0523681640625</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>156.3768310546875</v>
+        <v>196.8630828857422</v>
       </c>
       <c r="H16" t="n">
-        <v>75.62985229492188</v>
+        <v>56.46353530883789</v>
       </c>
       <c r="I16" t="n">
-        <v>302.5420837402344</v>
+        <v>323.4979553222656</v>
       </c>
       <c r="J16" t="n">
-        <v>91.08213043212891</v>
+        <v>89.4876708984375</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5704803466797</v>
+        <v>209.5461120605469</v>
       </c>
       <c r="H17" t="n">
-        <v>75.40773773193359</v>
+        <v>54.46701431274414</v>
       </c>
       <c r="I17" t="n">
-        <v>337.7587280273438</v>
+        <v>381.0148315429688</v>
       </c>
       <c r="J17" t="n">
-        <v>90.84771728515625</v>
+        <v>91.11293029785156</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>179.8815307617188</v>
+        <v>219.9220275878906</v>
       </c>
       <c r="H18" t="n">
-        <v>68.50511932373047</v>
+        <v>54.27942657470703</v>
       </c>
       <c r="I18" t="n">
-        <v>351.9983825683594</v>
+        <v>404.3591003417969</v>
       </c>
       <c r="J18" t="n">
-        <v>97.29890441894531</v>
+        <v>98.01608276367188</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>196.6816101074219</v>
+        <v>234.1728363037109</v>
       </c>
       <c r="H19" t="n">
-        <v>63.68513107299805</v>
+        <v>53.10557174682617</v>
       </c>
       <c r="I19" t="n">
-        <v>377.0106811523438</v>
+        <v>417.2320861816406</v>
       </c>
       <c r="J19" t="n">
-        <v>104.1741180419922</v>
+        <v>112.6298828125</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>210.31396484375</v>
+        <v>246.5592193603516</v>
       </c>
       <c r="H20" t="n">
-        <v>65.63259887695312</v>
+        <v>60.32931900024414</v>
       </c>
       <c r="I20" t="n">
-        <v>365.3395690917969</v>
+        <v>411.52978515625</v>
       </c>
       <c r="J20" t="n">
-        <v>120.6772308349609</v>
+        <v>121.2575912475586</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>247.0838012695312</v>
+        <v>275.3227844238281</v>
       </c>
       <c r="H21" t="n">
-        <v>70.19524383544922</v>
+        <v>68.78984069824219</v>
       </c>
       <c r="I21" t="n">
-        <v>355.8045654296875</v>
+        <v>413.3360900878906</v>
       </c>
       <c r="J21" t="n">
-        <v>149.9330902099609</v>
+        <v>166.4783325195312</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>328.40478515625</v>
+        <v>351.5714416503906</v>
       </c>
       <c r="H22" t="n">
-        <v>87.79710388183594</v>
+        <v>92.3084716796875</v>
       </c>
       <c r="I22" t="n">
-        <v>310.8031311035156</v>
+        <v>394.474609375</v>
       </c>
       <c r="J22" t="n">
-        <v>174.1793670654297</v>
+        <v>198.9874267578125</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>111.8709259033203</v>
+        <v>166.904296875</v>
       </c>
       <c r="H23" t="n">
-        <v>78.00080871582031</v>
+        <v>68.6575927734375</v>
       </c>
       <c r="I23" t="n">
-        <v>153.0628967285156</v>
+        <v>126.4466934204102</v>
       </c>
       <c r="J23" t="n">
-        <v>77.74531555175781</v>
+        <v>82.28797912597656</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>132.3183898925781</v>
+        <v>182.8454742431641</v>
       </c>
       <c r="H24" t="n">
-        <v>83.76210021972656</v>
+        <v>60.46827697753906</v>
       </c>
       <c r="I24" t="n">
-        <v>193.9306945800781</v>
+        <v>173.7084350585938</v>
       </c>
       <c r="J24" t="n">
-        <v>75.08258819580078</v>
+        <v>81.49996948242188</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>148.8479766845703</v>
+        <v>195.1874542236328</v>
       </c>
       <c r="H25" t="n">
-        <v>76.75973510742188</v>
+        <v>54.86313629150391</v>
       </c>
       <c r="I25" t="n">
-        <v>218.5672912597656</v>
+        <v>224.1627655029297</v>
       </c>
       <c r="J25" t="n">
-        <v>81.37017822265625</v>
+        <v>90.36363220214844</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>164.2714691162109</v>
+        <v>201.1816101074219</v>
       </c>
       <c r="H26" t="n">
-        <v>72.57649230957031</v>
+        <v>55.13251876831055</v>
       </c>
       <c r="I26" t="n">
-        <v>254.0231323242188</v>
+        <v>274.4183044433594</v>
       </c>
       <c r="J26" t="n">
-        <v>86.32337951660156</v>
+        <v>94.06646728515625</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>180.3710632324219</v>
+        <v>215.4338989257812</v>
       </c>
       <c r="H27" t="n">
-        <v>68.56513977050781</v>
+        <v>49.83322143554688</v>
       </c>
       <c r="I27" t="n">
-        <v>286.0962524414062</v>
+        <v>345.114013671875</v>
       </c>
       <c r="J27" t="n">
-        <v>90.71751403808594</v>
+        <v>105.1819076538086</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>193.4765777587891</v>
+        <v>222.1565093994141</v>
       </c>
       <c r="H28" t="n">
-        <v>64.155517578125</v>
+        <v>49.48685455322266</v>
       </c>
       <c r="I28" t="n">
-        <v>306.2486267089844</v>
+        <v>375.8184509277344</v>
       </c>
       <c r="J28" t="n">
-        <v>103.4599380493164</v>
+        <v>112.258056640625</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>211.7361907958984</v>
+        <v>233.7391662597656</v>
       </c>
       <c r="H29" t="n">
-        <v>63.36331558227539</v>
+        <v>57.43524551391602</v>
       </c>
       <c r="I29" t="n">
-        <v>306.7591857910156</v>
+        <v>389.4997253417969</v>
       </c>
       <c r="J29" t="n">
-        <v>128.2745819091797</v>
+        <v>121.5847473144531</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>256.3179016113281</v>
+        <v>274.824951171875</v>
       </c>
       <c r="H30" t="n">
-        <v>67.52584075927734</v>
+        <v>60.57732772827148</v>
       </c>
       <c r="I30" t="n">
-        <v>322.1726684570312</v>
+        <v>393.9843139648438</v>
       </c>
       <c r="J30" t="n">
-        <v>155.8105621337891</v>
+        <v>157.2494659423828</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>338.6511840820312</v>
+        <v>342.0251159667969</v>
       </c>
       <c r="H31" t="n">
-        <v>80.02149963378906</v>
+        <v>85.43802642822266</v>
       </c>
       <c r="I31" t="n">
-        <v>261.7228698730469</v>
+        <v>332.8858032226562</v>
       </c>
       <c r="J31" t="n">
-        <v>177.3495483398438</v>
+        <v>189.2366027832031</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>109.1576232910156</v>
+        <v>167.9362182617188</v>
       </c>
       <c r="H32" t="n">
-        <v>85.32305908203125</v>
+        <v>65.54740142822266</v>
       </c>
       <c r="I32" t="n">
-        <v>107.3731155395508</v>
+        <v>76.08501434326172</v>
       </c>
       <c r="J32" t="n">
-        <v>68.86593627929688</v>
+        <v>73.43067169189453</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>135.8849945068359</v>
+        <v>179.8474273681641</v>
       </c>
       <c r="H33" t="n">
-        <v>78.42398071289062</v>
+        <v>56.29435348510742</v>
       </c>
       <c r="I33" t="n">
-        <v>137.0469970703125</v>
+        <v>106.6869812011719</v>
       </c>
       <c r="J33" t="n">
-        <v>71.94371795654297</v>
+        <v>79.89641571044922</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>151.0929260253906</v>
+        <v>189.1499786376953</v>
       </c>
       <c r="H34" t="n">
-        <v>75.54869842529297</v>
+        <v>55.90120315551758</v>
       </c>
       <c r="I34" t="n">
-        <v>168.4317779541016</v>
+        <v>144.2639007568359</v>
       </c>
       <c r="J34" t="n">
-        <v>74.98925018310547</v>
+        <v>85.49439239501953</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>161.3469390869141</v>
+        <v>204.2091369628906</v>
       </c>
       <c r="H35" t="n">
-        <v>73.57570648193359</v>
+        <v>53.18399429321289</v>
       </c>
       <c r="I35" t="n">
-        <v>195.1552886962891</v>
+        <v>190.1460418701172</v>
       </c>
       <c r="J35" t="n">
-        <v>79.23615264892578</v>
+        <v>92.58429718017578</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>175.3351593017578</v>
+        <v>208.6967010498047</v>
       </c>
       <c r="H36" t="n">
-        <v>74.9222412109375</v>
+        <v>54.00641632080078</v>
       </c>
       <c r="I36" t="n">
-        <v>230.4548492431641</v>
+        <v>250.2281494140625</v>
       </c>
       <c r="J36" t="n">
-        <v>90.89113616943359</v>
+        <v>112.8634872436523</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>184.4159698486328</v>
+        <v>214.9119415283203</v>
       </c>
       <c r="H37" t="n">
-        <v>71.19290161132812</v>
+        <v>51.88246917724609</v>
       </c>
       <c r="I37" t="n">
-        <v>242.2454986572266</v>
+        <v>302.3533935546875</v>
       </c>
       <c r="J37" t="n">
-        <v>102.1868896484375</v>
+        <v>133.6746063232422</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>216.5359954833984</v>
+        <v>228.7533111572266</v>
       </c>
       <c r="H38" t="n">
-        <v>66.72686767578125</v>
+        <v>57.26977157592773</v>
       </c>
       <c r="I38" t="n">
-        <v>259.9067077636719</v>
+        <v>350.6609802246094</v>
       </c>
       <c r="J38" t="n">
-        <v>124.2700424194336</v>
+        <v>144.7361297607422</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>254.7253875732422</v>
+        <v>263.1968078613281</v>
       </c>
       <c r="H39" t="n">
-        <v>72.14628601074219</v>
+        <v>52.12853240966797</v>
       </c>
       <c r="I39" t="n">
-        <v>258.9763793945312</v>
+        <v>341.8311767578125</v>
       </c>
       <c r="J39" t="n">
-        <v>140.7118682861328</v>
+        <v>171.3874053955078</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>341.1136779785156</v>
+        <v>336.2473449707031</v>
       </c>
       <c r="H40" t="n">
-        <v>80.27181243896484</v>
+        <v>79.42281341552734</v>
       </c>
       <c r="I40" t="n">
-        <v>238.6667633056641</v>
+        <v>309.412841796875</v>
       </c>
       <c r="J40" t="n">
-        <v>183.3516845703125</v>
+        <v>177.5723724365234</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>111.6692047119141</v>
+        <v>170.0988311767578</v>
       </c>
       <c r="H41" t="n">
-        <v>88.53935241699219</v>
+        <v>61.75951766967773</v>
       </c>
       <c r="I41" t="n">
-        <v>77.93051147460938</v>
+        <v>36.63253021240234</v>
       </c>
       <c r="J41" t="n">
-        <v>74.85511779785156</v>
+        <v>69.27976989746094</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>137.1170959472656</v>
+        <v>183.7957000732422</v>
       </c>
       <c r="H42" t="n">
-        <v>80.72527313232422</v>
+        <v>57.27825164794922</v>
       </c>
       <c r="I42" t="n">
-        <v>96.07229614257812</v>
+        <v>57.78933715820312</v>
       </c>
       <c r="J42" t="n">
-        <v>71.69075012207031</v>
+        <v>73.96255493164062</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8033599853516</v>
+        <v>191.1851654052734</v>
       </c>
       <c r="H43" t="n">
-        <v>79.13177490234375</v>
+        <v>58.81912994384766</v>
       </c>
       <c r="I43" t="n">
-        <v>119.1485900878906</v>
+        <v>84.62828826904297</v>
       </c>
       <c r="J43" t="n">
-        <v>74.98369598388672</v>
+        <v>76.17923736572266</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>167.9476165771484</v>
+        <v>204.3462524414062</v>
       </c>
       <c r="H44" t="n">
-        <v>73.92440032958984</v>
+        <v>53.05612182617188</v>
       </c>
       <c r="I44" t="n">
-        <v>146.4244537353516</v>
+        <v>117.727294921875</v>
       </c>
       <c r="J44" t="n">
-        <v>75.18515777587891</v>
+        <v>82.59056854248047</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>175.7142639160156</v>
+        <v>209.0930633544922</v>
       </c>
       <c r="H45" t="n">
-        <v>75.37247467041016</v>
+        <v>50.8200798034668</v>
       </c>
       <c r="I45" t="n">
-        <v>170.8220977783203</v>
+        <v>168.5998077392578</v>
       </c>
       <c r="J45" t="n">
-        <v>81.37054443359375</v>
+        <v>104.9485549926758</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2301483154297</v>
+        <v>210.3554077148438</v>
       </c>
       <c r="H46" t="n">
-        <v>72.08409118652344</v>
+        <v>53.458251953125</v>
       </c>
       <c r="I46" t="n">
-        <v>207.6705169677734</v>
+        <v>241.7561645507812</v>
       </c>
       <c r="J46" t="n">
-        <v>109.0583343505859</v>
+        <v>131.1919097900391</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>211.4180145263672</v>
+        <v>223.2763214111328</v>
       </c>
       <c r="H47" t="n">
-        <v>66.14137268066406</v>
+        <v>52.7595329284668</v>
       </c>
       <c r="I47" t="n">
-        <v>220.3795318603516</v>
+        <v>292.0708618164062</v>
       </c>
       <c r="J47" t="n">
-        <v>130.9333953857422</v>
+        <v>165.3228912353516</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>264.984375</v>
+        <v>265.2334594726562</v>
       </c>
       <c r="H48" t="n">
-        <v>66.92960357666016</v>
+        <v>52.21173858642578</v>
       </c>
       <c r="I48" t="n">
-        <v>234.8049163818359</v>
+        <v>310.0006713867188</v>
       </c>
       <c r="J48" t="n">
-        <v>158.0293884277344</v>
+        <v>178.2213439941406</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>335.4361572265625</v>
+        <v>328.8132019042969</v>
       </c>
       <c r="H49" t="n">
-        <v>73.80439758300781</v>
+        <v>70.4315185546875</v>
       </c>
       <c r="I49" t="n">
-        <v>222.7120819091797</v>
+        <v>293.6394653320312</v>
       </c>
       <c r="J49" t="n">
-        <v>185.7107696533203</v>
+        <v>180.3576965332031</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>124.9771194458008</v>
+        <v>180.7149810791016</v>
       </c>
       <c r="H50" t="n">
-        <v>84.03661346435547</v>
+        <v>62.64338684082031</v>
       </c>
       <c r="I50" t="n">
-        <v>52.25743865966797</v>
+        <v>14.74579906463623</v>
       </c>
       <c r="J50" t="n">
-        <v>73.27845764160156</v>
+        <v>73.745361328125</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>143.58935546875</v>
+        <v>188.3860626220703</v>
       </c>
       <c r="H51" t="n">
-        <v>82.22768402099609</v>
+        <v>59.22543716430664</v>
       </c>
       <c r="I51" t="n">
-        <v>63.36532592773438</v>
+        <v>28.24903297424316</v>
       </c>
       <c r="J51" t="n">
-        <v>71.48918151855469</v>
+        <v>74.71142578125</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>157.9479675292969</v>
+        <v>198.3228149414062</v>
       </c>
       <c r="H52" t="n">
-        <v>77.00865936279297</v>
+        <v>57.64421844482422</v>
       </c>
       <c r="I52" t="n">
-        <v>78.45177459716797</v>
+        <v>31.4781379699707</v>
       </c>
       <c r="J52" t="n">
-        <v>72.54668426513672</v>
+        <v>72.55496215820312</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>172.7897186279297</v>
+        <v>207.7193756103516</v>
       </c>
       <c r="H53" t="n">
-        <v>75.84432220458984</v>
+        <v>51.07425308227539</v>
       </c>
       <c r="I53" t="n">
-        <v>99.57782745361328</v>
+        <v>60.54573059082031</v>
       </c>
       <c r="J53" t="n">
-        <v>77.95313262939453</v>
+        <v>78.49594116210938</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>183.6467132568359</v>
+        <v>214.5614929199219</v>
       </c>
       <c r="H54" t="n">
-        <v>73.89071655273438</v>
+        <v>48.22710037231445</v>
       </c>
       <c r="I54" t="n">
-        <v>127.194221496582</v>
+        <v>104.4393768310547</v>
       </c>
       <c r="J54" t="n">
-        <v>86.14402008056641</v>
+        <v>95.30477905273438</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>193.2157897949219</v>
+        <v>218.2011108398438</v>
       </c>
       <c r="H55" t="n">
-        <v>76.66986846923828</v>
+        <v>49.31063079833984</v>
       </c>
       <c r="I55" t="n">
-        <v>149.9365692138672</v>
+        <v>167.6977844238281</v>
       </c>
       <c r="J55" t="n">
-        <v>104.3500823974609</v>
+        <v>129.7069854736328</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>212.1113891601562</v>
+        <v>230.4623413085938</v>
       </c>
       <c r="H56" t="n">
-        <v>70.63401794433594</v>
+        <v>52.62820053100586</v>
       </c>
       <c r="I56" t="n">
-        <v>187.6539001464844</v>
+        <v>238.3880767822266</v>
       </c>
       <c r="J56" t="n">
-        <v>126.8358688354492</v>
+        <v>154.0145263671875</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>258.1623229980469</v>
+        <v>262.1796569824219</v>
       </c>
       <c r="H57" t="n">
-        <v>71.74479675292969</v>
+        <v>49.47683715820312</v>
       </c>
       <c r="I57" t="n">
-        <v>203.8945007324219</v>
+        <v>266.1814575195312</v>
       </c>
       <c r="J57" t="n">
-        <v>154.8073883056641</v>
+        <v>174.0775909423828</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>328.9970092773438</v>
+        <v>315.2805786132812</v>
       </c>
       <c r="H58" t="n">
-        <v>75.68614196777344</v>
+        <v>64.37139129638672</v>
       </c>
       <c r="I58" t="n">
-        <v>199.3522338867188</v>
+        <v>284.8608703613281</v>
       </c>
       <c r="J58" t="n">
-        <v>188.1046600341797</v>
+        <v>171.6505126953125</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>157.2950134277344</v>
+        <v>196.3845520019531</v>
       </c>
       <c r="H59" t="n">
-        <v>78.03706359863281</v>
+        <v>56.40041732788086</v>
       </c>
       <c r="I59" t="n">
-        <v>28.98852920532227</v>
+        <v>-12.55998229980469</v>
       </c>
       <c r="J59" t="n">
-        <v>72.29875946044922</v>
+        <v>72.53959655761719</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>177.5480346679688</v>
+        <v>207.1826782226562</v>
       </c>
       <c r="H60" t="n">
-        <v>77.721435546875</v>
+        <v>52.97845458984375</v>
       </c>
       <c r="I60" t="n">
-        <v>36.1983528137207</v>
+        <v>-5.337241649627686</v>
       </c>
       <c r="J60" t="n">
-        <v>70.716796875</v>
+        <v>73.82450866699219</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>186.7849578857422</v>
+        <v>216.29296875</v>
       </c>
       <c r="H61" t="n">
-        <v>71.09040069580078</v>
+        <v>53.4337158203125</v>
       </c>
       <c r="I61" t="n">
-        <v>60.48947143554688</v>
+        <v>22.89949798583984</v>
       </c>
       <c r="J61" t="n">
-        <v>73.83616638183594</v>
+        <v>82.40596771240234</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>197.6938781738281</v>
+        <v>224.0152130126953</v>
       </c>
       <c r="H62" t="n">
-        <v>72.60170745849609</v>
+        <v>49.27362823486328</v>
       </c>
       <c r="I62" t="n">
-        <v>79.69985961914062</v>
+        <v>48.36226654052734</v>
       </c>
       <c r="J62" t="n">
-        <v>83.68319702148438</v>
+        <v>94.4727783203125</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>208.823974609375</v>
+        <v>226.3317718505859</v>
       </c>
       <c r="H63" t="n">
-        <v>68.06187438964844</v>
+        <v>51.3621940612793</v>
       </c>
       <c r="I63" t="n">
-        <v>108.3737564086914</v>
+        <v>106.2079391479492</v>
       </c>
       <c r="J63" t="n">
-        <v>93.4674072265625</v>
+        <v>127.9538421630859</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>219.8292694091797</v>
+        <v>238.6247711181641</v>
       </c>
       <c r="H64" t="n">
-        <v>69.66377258300781</v>
+        <v>47.23461151123047</v>
       </c>
       <c r="I64" t="n">
-        <v>148.8713073730469</v>
+        <v>175.5886383056641</v>
       </c>
       <c r="J64" t="n">
-        <v>117.9586944580078</v>
+        <v>155.0099029541016</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>251.6037445068359</v>
+        <v>263.469970703125</v>
       </c>
       <c r="H65" t="n">
-        <v>69.23978424072266</v>
+        <v>47.88404083251953</v>
       </c>
       <c r="I65" t="n">
-        <v>176.2600250244141</v>
+        <v>216.9485168457031</v>
       </c>
       <c r="J65" t="n">
-        <v>151.9128265380859</v>
+        <v>169.3115234375</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>194.0271148681641</v>
+        <v>216.5836486816406</v>
       </c>
       <c r="H66" t="n">
-        <v>74.96089172363281</v>
+        <v>50.91394805908203</v>
       </c>
       <c r="I66" t="n">
-        <v>-18.21764183044434</v>
+        <v>-64.87275695800781</v>
       </c>
       <c r="J66" t="n">
-        <v>67.05237579345703</v>
+        <v>77.96290588378906</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>200.1041870117188</v>
+        <v>221.0081176757812</v>
       </c>
       <c r="H67" t="n">
-        <v>72.59820556640625</v>
+        <v>52.49247360229492</v>
       </c>
       <c r="I67" t="n">
-        <v>5.655847072601318</v>
+        <v>-38.39333724975586</v>
       </c>
       <c r="J67" t="n">
-        <v>73.25458526611328</v>
+        <v>79.87145233154297</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>210.7979888916016</v>
+        <v>228.6187438964844</v>
       </c>
       <c r="H68" t="n">
-        <v>71.97137451171875</v>
+        <v>48.295166015625</v>
       </c>
       <c r="I68" t="n">
-        <v>35.1093864440918</v>
+        <v>-13.22558307647705</v>
       </c>
       <c r="J68" t="n">
-        <v>77.21868896484375</v>
+        <v>88.97105407714844</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>219.3940582275391</v>
+        <v>237.3481292724609</v>
       </c>
       <c r="H69" t="n">
-        <v>68.26988983154297</v>
+        <v>46.39491653442383</v>
       </c>
       <c r="I69" t="n">
-        <v>65.37364959716797</v>
+        <v>39.37732696533203</v>
       </c>
       <c r="J69" t="n">
-        <v>91.919189453125</v>
+        <v>110.6484680175781</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>222.2037506103516</v>
+        <v>243.9539794921875</v>
       </c>
       <c r="H70" t="n">
-        <v>73.34810638427734</v>
+        <v>46.0316047668457</v>
       </c>
       <c r="I70" t="n">
-        <v>114.1661987304688</v>
+        <v>105.3881988525391</v>
       </c>
       <c r="J70" t="n">
-        <v>117.9481887817383</v>
+        <v>144.4975128173828</v>
       </c>
     </row>
   </sheetData>
